--- a/Abaqus/CPFE_Ghosh3/AbaqusTest/MatParam.xlsx
+++ b/Abaqus/CPFE_Ghosh3/AbaqusTest/MatParam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitKrakenRes\SubroutineVaultGhosh2\Abaqus\CPFE_Ghosh3\AbaqusTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GithubRes\SubroutineVault\Abaqus\CPFE_Ghosh3\AbaqusTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DB0997-1662-4463-AD77-0EF46506EA41}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89375E81-78C2-4600-AB32-B146ADFE22F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{1E1D010D-A893-4774-9EE1-DEE0C18ECB85}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95A12FC-A644-4F35-938C-FC832E94F4F8}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D2:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,30 +869,30 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
